--- a/online-task/spreadsheet.xlsx
+++ b/online-task/spreadsheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caltech-my.sharepoint.com/personal/beum_caltech_edu/Documents/PhD/Rangel Lab/2022-biased-priors/online-task/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://caltech-my.sharepoint.com/personal/beum_caltech_edu/Documents/PhD/Rangel Lab/2023-biased-priors/online-task/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="448" documentId="11_F25DC773A252ABDACC1048E931DB6B1A5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{59659256-A836-4F95-AD46-DDE9CB393673}"/>
+  <xr:revisionPtr revIDLastSave="495" documentId="11_F25DC773A252ABDACC1048E931DB6B1A5BDE58E8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00EDD518-636D-4BB2-8378-E574B44F61B5}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1697" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1702" uniqueCount="482">
   <si>
     <t>display</t>
   </si>
@@ -1476,6 +1476,12 @@
   </si>
   <si>
     <t>practicered4.png</t>
+  </si>
+  <si>
+    <t>BlockRedCheck</t>
+  </si>
+  <si>
+    <t>BlockBlueCheck</t>
   </si>
 </sst>
 </file>
@@ -1797,23 +1803,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N424"/>
+  <dimension ref="A1:N429"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J65" sqref="J65"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="17.77734375" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1857,7 +1863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>6</v>
       </c>
@@ -1874,7 +1880,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>25</v>
       </c>
@@ -1891,7 +1897,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>169</v>
       </c>
@@ -1908,7 +1914,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1916,7 +1922,7 @@
         <v>30</v>
       </c>
       <c r="F5">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -1937,7 +1943,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -1945,7 +1951,7 @@
         <v>30</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
         <v>36</v>
@@ -1966,7 +1972,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -1974,7 +1980,7 @@
         <v>30</v>
       </c>
       <c r="F7">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
         <v>31</v>
@@ -1995,7 +2001,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -2003,7 +2009,7 @@
         <v>30</v>
       </c>
       <c r="F8">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s">
         <v>36</v>
@@ -2024,7 +2030,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>30</v>
       </c>
       <c r="F9">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G9" t="s">
         <v>31</v>
@@ -2053,7 +2059,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -2061,7 +2067,7 @@
         <v>30</v>
       </c>
       <c r="F10">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -2082,7 +2088,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -2090,7 +2096,7 @@
         <v>30</v>
       </c>
       <c r="F11">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G11" t="s">
         <v>31</v>
@@ -2111,7 +2117,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -2119,7 +2125,7 @@
         <v>30</v>
       </c>
       <c r="F12">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G12" t="s">
         <v>36</v>
@@ -2140,7 +2146,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -2148,7 +2154,7 @@
         <v>30</v>
       </c>
       <c r="F13">
-        <v>1000</v>
+        <v>1280</v>
       </c>
       <c r="G13" t="s">
         <v>31</v>
@@ -2169,7 +2175,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -2177,7 +2183,7 @@
         <v>30</v>
       </c>
       <c r="F14">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G14" t="s">
         <v>31</v>
@@ -2198,9 +2204,9 @@
         <v>452</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>41</v>
+        <v>481</v>
       </c>
       <c r="K15" t="s">
         <v>73</v>
@@ -2215,9 +2221,9 @@
         <v>453</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>7</v>
+        <v>41</v>
       </c>
       <c r="K16" t="s">
         <v>75</v>
@@ -2232,12 +2238,9 @@
         <v>454</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>1</v>
-      </c>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>168</v>
+        <v>7</v>
       </c>
       <c r="K17" t="s">
         <v>77</v>
@@ -2252,27 +2255,12 @@
         <v>455</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2</v>
-      </c>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18">
-        <v>100</v>
-      </c>
-      <c r="G18" t="s">
-        <v>36</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18" t="s">
-        <v>19</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s">
         <v>79</v>
@@ -2287,7 +2275,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -2298,7 +2286,7 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G19" t="s">
         <v>36</v>
@@ -2322,7 +2310,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -2333,7 +2321,7 @@
         <v>8</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G20" t="s">
         <v>36</v>
@@ -2357,7 +2345,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -2368,7 +2356,7 @@
         <v>8</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
         <v>36</v>
@@ -2392,7 +2380,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -2403,7 +2391,7 @@
         <v>8</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
         <v>36</v>
@@ -2421,7 +2409,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2</v>
       </c>
@@ -2432,7 +2420,7 @@
         <v>8</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
         <v>36</v>
@@ -2450,7 +2438,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -2461,7 +2449,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G24" t="s">
         <v>36</v>
@@ -2479,7 +2467,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -2490,7 +2478,7 @@
         <v>8</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G25" t="s">
         <v>36</v>
@@ -2508,7 +2496,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2</v>
       </c>
@@ -2519,7 +2507,7 @@
         <v>8</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
         <v>36</v>
@@ -2537,7 +2525,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -2548,10 +2536,10 @@
         <v>8</v>
       </c>
       <c r="F27">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -2566,7 +2554,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2</v>
       </c>
@@ -2577,7 +2565,7 @@
         <v>8</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G28" t="s">
         <v>31</v>
@@ -2595,7 +2583,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -2606,7 +2594,7 @@
         <v>8</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G29" t="s">
         <v>31</v>
@@ -2624,7 +2612,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -2635,7 +2623,7 @@
         <v>8</v>
       </c>
       <c r="F30">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G30" t="s">
         <v>31</v>
@@ -2653,7 +2641,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -2664,7 +2652,7 @@
         <v>8</v>
       </c>
       <c r="F31">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G31" t="s">
         <v>31</v>
@@ -2682,7 +2670,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2</v>
       </c>
@@ -2693,7 +2681,7 @@
         <v>8</v>
       </c>
       <c r="F32">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G32" t="s">
         <v>31</v>
@@ -2711,7 +2699,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2</v>
       </c>
@@ -2722,10 +2710,10 @@
         <v>8</v>
       </c>
       <c r="F33">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -2740,7 +2728,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2</v>
       </c>
@@ -2751,7 +2739,7 @@
         <v>8</v>
       </c>
       <c r="F34">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s">
         <v>36</v>
@@ -2769,7 +2757,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2</v>
       </c>
@@ -2780,7 +2768,7 @@
         <v>8</v>
       </c>
       <c r="F35">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s">
         <v>36</v>
@@ -2798,7 +2786,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2</v>
       </c>
@@ -2809,7 +2797,7 @@
         <v>8</v>
       </c>
       <c r="F36">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s">
         <v>36</v>
@@ -2827,7 +2815,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2</v>
       </c>
@@ -2838,7 +2826,7 @@
         <v>8</v>
       </c>
       <c r="F37">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s">
         <v>36</v>
@@ -2856,7 +2844,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -2867,7 +2855,7 @@
         <v>8</v>
       </c>
       <c r="F38">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s">
         <v>36</v>
@@ -2885,7 +2873,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -2896,7 +2884,7 @@
         <v>8</v>
       </c>
       <c r="F39">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s">
         <v>36</v>
@@ -2914,7 +2902,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2</v>
       </c>
@@ -2925,7 +2913,7 @@
         <v>8</v>
       </c>
       <c r="F40">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s">
         <v>36</v>
@@ -2943,7 +2931,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2</v>
       </c>
@@ -2954,7 +2942,7 @@
         <v>8</v>
       </c>
       <c r="F41">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s">
         <v>36</v>
@@ -2972,7 +2960,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2</v>
       </c>
@@ -2983,10 +2971,10 @@
         <v>8</v>
       </c>
       <c r="F42">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3001,7 +2989,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2</v>
       </c>
@@ -3012,7 +3000,7 @@
         <v>8</v>
       </c>
       <c r="F43">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s">
         <v>31</v>
@@ -3030,7 +3018,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
@@ -3041,7 +3029,7 @@
         <v>8</v>
       </c>
       <c r="F44">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s">
         <v>31</v>
@@ -3059,7 +3047,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2</v>
       </c>
@@ -3070,7 +3058,7 @@
         <v>8</v>
       </c>
       <c r="F45">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s">
         <v>31</v>
@@ -3088,7 +3076,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2</v>
       </c>
@@ -3099,7 +3087,7 @@
         <v>8</v>
       </c>
       <c r="F46">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s">
         <v>31</v>
@@ -3117,7 +3105,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2</v>
       </c>
@@ -3128,7 +3116,7 @@
         <v>8</v>
       </c>
       <c r="F47">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G47" t="s">
         <v>31</v>
@@ -3146,7 +3134,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2</v>
       </c>
@@ -3157,10 +3145,10 @@
         <v>8</v>
       </c>
       <c r="F48">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G48" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -3175,7 +3163,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -3186,7 +3174,7 @@
         <v>8</v>
       </c>
       <c r="F49">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G49" t="s">
         <v>36</v>
@@ -3204,7 +3192,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -3215,7 +3203,7 @@
         <v>8</v>
       </c>
       <c r="F50">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G50" t="s">
         <v>36</v>
@@ -3233,7 +3221,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -3244,7 +3232,7 @@
         <v>8</v>
       </c>
       <c r="F51">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G51" t="s">
         <v>36</v>
@@ -3262,7 +3250,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2</v>
       </c>
@@ -3273,7 +3261,7 @@
         <v>8</v>
       </c>
       <c r="F52">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G52" t="s">
         <v>36</v>
@@ -3291,7 +3279,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -3302,7 +3290,7 @@
         <v>8</v>
       </c>
       <c r="F53">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G53" t="s">
         <v>36</v>
@@ -3320,7 +3308,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2</v>
       </c>
@@ -3331,7 +3319,7 @@
         <v>8</v>
       </c>
       <c r="F54">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G54" t="s">
         <v>36</v>
@@ -3349,7 +3337,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2</v>
       </c>
@@ -3360,7 +3348,7 @@
         <v>8</v>
       </c>
       <c r="F55">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G55" t="s">
         <v>36</v>
@@ -3378,7 +3366,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -3389,7 +3377,7 @@
         <v>8</v>
       </c>
       <c r="F56">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G56" t="s">
         <v>36</v>
@@ -3407,7 +3395,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -3418,10 +3406,10 @@
         <v>8</v>
       </c>
       <c r="F57">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G57" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -3436,7 +3424,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -3447,7 +3435,7 @@
         <v>8</v>
       </c>
       <c r="F58">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G58" t="s">
         <v>31</v>
@@ -3465,7 +3453,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -3476,7 +3464,7 @@
         <v>8</v>
       </c>
       <c r="F59">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G59" t="s">
         <v>31</v>
@@ -3494,7 +3482,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3505,7 +3493,7 @@
         <v>8</v>
       </c>
       <c r="F60">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G60" t="s">
         <v>31</v>
@@ -3523,7 +3511,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2</v>
       </c>
@@ -3534,7 +3522,7 @@
         <v>8</v>
       </c>
       <c r="F61">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G61" t="s">
         <v>31</v>
@@ -3552,7 +3540,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2</v>
       </c>
@@ -3563,7 +3551,7 @@
         <v>8</v>
       </c>
       <c r="F62">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G62" t="s">
         <v>31</v>
@@ -3581,7 +3569,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2</v>
       </c>
@@ -3592,10 +3580,10 @@
         <v>8</v>
       </c>
       <c r="F63">
-        <v>750</v>
+        <v>160</v>
       </c>
       <c r="G63" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -3610,7 +3598,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2</v>
       </c>
@@ -3621,7 +3609,7 @@
         <v>8</v>
       </c>
       <c r="F64">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G64" t="s">
         <v>36</v>
@@ -3639,7 +3627,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2</v>
       </c>
@@ -3650,7 +3638,7 @@
         <v>8</v>
       </c>
       <c r="F65">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G65" t="s">
         <v>36</v>
@@ -3668,7 +3656,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2</v>
       </c>
@@ -3679,7 +3667,7 @@
         <v>8</v>
       </c>
       <c r="F66">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G66" t="s">
         <v>36</v>
@@ -3697,7 +3685,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2</v>
       </c>
@@ -3708,7 +3696,7 @@
         <v>8</v>
       </c>
       <c r="F67">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G67" t="s">
         <v>36</v>
@@ -3726,7 +3714,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2</v>
       </c>
@@ -3737,7 +3725,7 @@
         <v>8</v>
       </c>
       <c r="F68">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G68" t="s">
         <v>36</v>
@@ -3755,7 +3743,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2</v>
       </c>
@@ -3766,7 +3754,7 @@
         <v>8</v>
       </c>
       <c r="F69">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G69" t="s">
         <v>36</v>
@@ -3784,7 +3772,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -3795,7 +3783,7 @@
         <v>8</v>
       </c>
       <c r="F70">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G70" t="s">
         <v>36</v>
@@ -3813,7 +3801,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2</v>
       </c>
@@ -3824,7 +3812,7 @@
         <v>8</v>
       </c>
       <c r="F71">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G71" t="s">
         <v>36</v>
@@ -3842,7 +3830,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2</v>
       </c>
@@ -3853,10 +3841,10 @@
         <v>8</v>
       </c>
       <c r="F72">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G72" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -3871,7 +3859,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -3882,7 +3870,7 @@
         <v>8</v>
       </c>
       <c r="F73">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G73" t="s">
         <v>31</v>
@@ -3900,7 +3888,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -3911,7 +3899,7 @@
         <v>8</v>
       </c>
       <c r="F74">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G74" t="s">
         <v>31</v>
@@ -3929,7 +3917,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -3940,7 +3928,7 @@
         <v>8</v>
       </c>
       <c r="F75">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G75" t="s">
         <v>31</v>
@@ -3958,7 +3946,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -3969,7 +3957,7 @@
         <v>8</v>
       </c>
       <c r="F76">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G76" t="s">
         <v>31</v>
@@ -3987,7 +3975,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -3998,7 +3986,7 @@
         <v>8</v>
       </c>
       <c r="F77">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G77" t="s">
         <v>31</v>
@@ -4016,7 +4004,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -4027,10 +4015,10 @@
         <v>8</v>
       </c>
       <c r="F78">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="G78" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H78">
         <v>0</v>
@@ -4045,7 +4033,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -4056,7 +4044,7 @@
         <v>8</v>
       </c>
       <c r="F79">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G79" t="s">
         <v>36</v>
@@ -4074,7 +4062,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -4085,7 +4073,7 @@
         <v>8</v>
       </c>
       <c r="F80">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G80" t="s">
         <v>36</v>
@@ -4103,7 +4091,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -4114,7 +4102,7 @@
         <v>8</v>
       </c>
       <c r="F81">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G81" t="s">
         <v>36</v>
@@ -4132,7 +4120,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -4143,7 +4131,7 @@
         <v>8</v>
       </c>
       <c r="F82">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G82" t="s">
         <v>36</v>
@@ -4161,7 +4149,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -4172,7 +4160,7 @@
         <v>8</v>
       </c>
       <c r="F83">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G83" t="s">
         <v>36</v>
@@ -4190,7 +4178,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -4201,7 +4189,7 @@
         <v>8</v>
       </c>
       <c r="F84">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G84" t="s">
         <v>36</v>
@@ -4219,7 +4207,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2</v>
       </c>
@@ -4230,7 +4218,7 @@
         <v>8</v>
       </c>
       <c r="F85">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G85" t="s">
         <v>36</v>
@@ -4248,7 +4236,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2</v>
       </c>
@@ -4259,7 +4247,7 @@
         <v>8</v>
       </c>
       <c r="F86">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G86" t="s">
         <v>36</v>
@@ -4277,7 +4265,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -4288,10 +4276,10 @@
         <v>8</v>
       </c>
       <c r="F87">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G87" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -4306,7 +4294,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2</v>
       </c>
@@ -4317,7 +4305,7 @@
         <v>8</v>
       </c>
       <c r="F88">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G88" t="s">
         <v>31</v>
@@ -4335,7 +4323,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -4346,7 +4334,7 @@
         <v>8</v>
       </c>
       <c r="F89">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G89" t="s">
         <v>31</v>
@@ -4364,7 +4352,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2</v>
       </c>
@@ -4375,7 +4363,7 @@
         <v>8</v>
       </c>
       <c r="F90">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G90" t="s">
         <v>31</v>
@@ -4393,7 +4381,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2</v>
       </c>
@@ -4404,7 +4392,7 @@
         <v>8</v>
       </c>
       <c r="F91">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G91" t="s">
         <v>31</v>
@@ -4422,7 +4410,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -4433,7 +4421,7 @@
         <v>8</v>
       </c>
       <c r="F92">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G92" t="s">
         <v>31</v>
@@ -4451,7 +4439,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -4462,10 +4450,10 @@
         <v>8</v>
       </c>
       <c r="F93">
-        <v>3000</v>
+        <v>640</v>
       </c>
       <c r="G93" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -4480,7 +4468,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2</v>
       </c>
@@ -4491,7 +4479,7 @@
         <v>8</v>
       </c>
       <c r="F94">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G94" t="s">
         <v>36</v>
@@ -4509,7 +4497,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2</v>
       </c>
@@ -4520,7 +4508,7 @@
         <v>8</v>
       </c>
       <c r="F95">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G95" t="s">
         <v>36</v>
@@ -4538,7 +4526,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2</v>
       </c>
@@ -4549,7 +4537,7 @@
         <v>8</v>
       </c>
       <c r="F96">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G96" t="s">
         <v>36</v>
@@ -4567,7 +4555,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -4578,7 +4566,7 @@
         <v>8</v>
       </c>
       <c r="F97">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G97" t="s">
         <v>36</v>
@@ -4596,7 +4584,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -4607,7 +4595,7 @@
         <v>8</v>
       </c>
       <c r="F98">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G98" t="s">
         <v>36</v>
@@ -4625,7 +4613,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -4636,7 +4624,7 @@
         <v>8</v>
       </c>
       <c r="F99">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G99" t="s">
         <v>36</v>
@@ -4654,7 +4642,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2</v>
       </c>
@@ -4665,7 +4653,7 @@
         <v>8</v>
       </c>
       <c r="F100">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G100" t="s">
         <v>36</v>
@@ -4683,7 +4671,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -4694,7 +4682,7 @@
         <v>8</v>
       </c>
       <c r="F101">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G101" t="s">
         <v>36</v>
@@ -4712,7 +4700,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2</v>
       </c>
@@ -4723,10 +4711,10 @@
         <v>8</v>
       </c>
       <c r="F102">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G102" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -4741,7 +4729,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -4752,7 +4740,7 @@
         <v>8</v>
       </c>
       <c r="F103">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G103" t="s">
         <v>31</v>
@@ -4770,7 +4758,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2</v>
       </c>
@@ -4781,7 +4769,7 @@
         <v>8</v>
       </c>
       <c r="F104">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G104" t="s">
         <v>31</v>
@@ -4799,7 +4787,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2</v>
       </c>
@@ -4810,7 +4798,7 @@
         <v>8</v>
       </c>
       <c r="F105">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G105" t="s">
         <v>31</v>
@@ -4828,7 +4816,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2</v>
       </c>
@@ -4839,7 +4827,7 @@
         <v>8</v>
       </c>
       <c r="F106">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G106" t="s">
         <v>31</v>
@@ -4857,7 +4845,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2</v>
       </c>
@@ -4868,7 +4856,7 @@
         <v>8</v>
       </c>
       <c r="F107">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G107" t="s">
         <v>31</v>
@@ -4886,7 +4874,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2</v>
       </c>
@@ -4897,13 +4885,13 @@
         <v>8</v>
       </c>
       <c r="F108">
-        <v>600</v>
+        <v>1280</v>
       </c>
       <c r="G108" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="s">
         <v>19</v>
@@ -4915,7 +4903,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2</v>
       </c>
@@ -4944,7 +4932,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2</v>
       </c>
@@ -4973,7 +4961,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2</v>
       </c>
@@ -5002,7 +4990,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2</v>
       </c>
@@ -5031,7 +5019,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2</v>
       </c>
@@ -5060,7 +5048,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2</v>
       </c>
@@ -5074,7 +5062,7 @@
         <v>600</v>
       </c>
       <c r="G114" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H114">
         <v>1</v>
@@ -5089,7 +5077,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2</v>
       </c>
@@ -5118,7 +5106,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2</v>
       </c>
@@ -5147,7 +5135,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2</v>
       </c>
@@ -5176,9 +5164,27 @@
         <v>365</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
       <c r="E118" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F118">
+        <v>600</v>
+      </c>
+      <c r="G118" t="s">
+        <v>31</v>
+      </c>
+      <c r="H118">
+        <v>1</v>
+      </c>
+      <c r="I118" t="s">
+        <v>19</v>
       </c>
       <c r="K118" t="s">
         <v>226</v>
@@ -5187,12 +5193,12 @@
         <v>366</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B119">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E119" t="s">
-        <v>169</v>
+        <v>480</v>
       </c>
       <c r="K119" t="s">
         <v>227</v>
@@ -5201,27 +5207,9 @@
         <v>367</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A120">
-        <v>3</v>
-      </c>
-      <c r="B120">
-        <v>2</v>
-      </c>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>8</v>
-      </c>
-      <c r="F120">
-        <v>100</v>
-      </c>
-      <c r="G120" t="s">
-        <v>31</v>
-      </c>
-      <c r="H120">
-        <v>0</v>
-      </c>
-      <c r="I120" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="K120" t="s">
         <v>228</v>
@@ -5230,27 +5218,12 @@
         <v>368</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A121">
-        <v>3</v>
-      </c>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B121">
         <v>2</v>
       </c>
       <c r="E121" t="s">
-        <v>8</v>
-      </c>
-      <c r="F121">
-        <v>100</v>
-      </c>
-      <c r="G121" t="s">
-        <v>31</v>
-      </c>
-      <c r="H121">
-        <v>0</v>
-      </c>
-      <c r="I121" t="s">
-        <v>18</v>
+        <v>169</v>
       </c>
       <c r="K121" t="s">
         <v>229</v>
@@ -5259,7 +5232,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -5270,7 +5243,7 @@
         <v>8</v>
       </c>
       <c r="F122">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G122" t="s">
         <v>31</v>
@@ -5288,7 +5261,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3</v>
       </c>
@@ -5299,7 +5272,7 @@
         <v>8</v>
       </c>
       <c r="F123">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G123" t="s">
         <v>31</v>
@@ -5317,7 +5290,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
@@ -5328,7 +5301,7 @@
         <v>8</v>
       </c>
       <c r="F124">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G124" t="s">
         <v>31</v>
@@ -5346,7 +5319,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3</v>
       </c>
@@ -5357,7 +5330,7 @@
         <v>8</v>
       </c>
       <c r="F125">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G125" t="s">
         <v>31</v>
@@ -5375,7 +5348,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3</v>
       </c>
@@ -5386,7 +5359,7 @@
         <v>8</v>
       </c>
       <c r="F126">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G126" t="s">
         <v>31</v>
@@ -5404,7 +5377,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>3</v>
       </c>
@@ -5415,7 +5388,7 @@
         <v>8</v>
       </c>
       <c r="F127">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G127" t="s">
         <v>31</v>
@@ -5433,7 +5406,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>3</v>
       </c>
@@ -5444,7 +5417,7 @@
         <v>8</v>
       </c>
       <c r="F128">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G128" t="s">
         <v>31</v>
@@ -5462,7 +5435,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>3</v>
       </c>
@@ -5473,10 +5446,10 @@
         <v>8</v>
       </c>
       <c r="F129">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G129" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -5491,7 +5464,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>3</v>
       </c>
@@ -5502,10 +5475,10 @@
         <v>8</v>
       </c>
       <c r="F130">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G130" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -5520,7 +5493,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>3</v>
       </c>
@@ -5531,7 +5504,7 @@
         <v>8</v>
       </c>
       <c r="F131">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G131" t="s">
         <v>36</v>
@@ -5549,7 +5522,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>3</v>
       </c>
@@ -5560,7 +5533,7 @@
         <v>8</v>
       </c>
       <c r="F132">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G132" t="s">
         <v>36</v>
@@ -5578,7 +5551,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>3</v>
       </c>
@@ -5589,7 +5562,7 @@
         <v>8</v>
       </c>
       <c r="F133">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G133" t="s">
         <v>36</v>
@@ -5607,7 +5580,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>3</v>
       </c>
@@ -5618,7 +5591,7 @@
         <v>8</v>
       </c>
       <c r="F134">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G134" t="s">
         <v>36</v>
@@ -5636,7 +5609,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>3</v>
       </c>
@@ -5647,10 +5620,10 @@
         <v>8</v>
       </c>
       <c r="F135">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="G135" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -5665,7 +5638,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>3</v>
       </c>
@@ -5676,10 +5649,10 @@
         <v>8</v>
       </c>
       <c r="F136">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="G136" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -5694,7 +5667,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>3</v>
       </c>
@@ -5705,7 +5678,7 @@
         <v>8</v>
       </c>
       <c r="F137">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G137" t="s">
         <v>31</v>
@@ -5723,7 +5696,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>3</v>
       </c>
@@ -5734,7 +5707,7 @@
         <v>8</v>
       </c>
       <c r="F138">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G138" t="s">
         <v>31</v>
@@ -5752,7 +5725,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>3</v>
       </c>
@@ -5763,7 +5736,7 @@
         <v>8</v>
       </c>
       <c r="F139">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G139" t="s">
         <v>31</v>
@@ -5781,7 +5754,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>3</v>
       </c>
@@ -5792,7 +5765,7 @@
         <v>8</v>
       </c>
       <c r="F140">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G140" t="s">
         <v>31</v>
@@ -5810,7 +5783,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>3</v>
       </c>
@@ -5821,7 +5794,7 @@
         <v>8</v>
       </c>
       <c r="F141">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G141" t="s">
         <v>31</v>
@@ -5839,7 +5812,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>3</v>
       </c>
@@ -5850,7 +5823,7 @@
         <v>8</v>
       </c>
       <c r="F142">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G142" t="s">
         <v>31</v>
@@ -5868,7 +5841,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3</v>
       </c>
@@ -5879,7 +5852,7 @@
         <v>8</v>
       </c>
       <c r="F143">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G143" t="s">
         <v>31</v>
@@ -5897,7 +5870,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>3</v>
       </c>
@@ -5908,10 +5881,10 @@
         <v>8</v>
       </c>
       <c r="F144">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G144" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -5926,7 +5899,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>3</v>
       </c>
@@ -5937,10 +5910,10 @@
         <v>8</v>
       </c>
       <c r="F145">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G145" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -5955,7 +5928,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>3</v>
       </c>
@@ -5966,7 +5939,7 @@
         <v>8</v>
       </c>
       <c r="F146">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G146" t="s">
         <v>36</v>
@@ -5984,7 +5957,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>3</v>
       </c>
@@ -5995,7 +5968,7 @@
         <v>8</v>
       </c>
       <c r="F147">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G147" t="s">
         <v>36</v>
@@ -6013,7 +5986,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>3</v>
       </c>
@@ -6024,7 +5997,7 @@
         <v>8</v>
       </c>
       <c r="F148">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G148" t="s">
         <v>36</v>
@@ -6042,7 +6015,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
@@ -6053,7 +6026,7 @@
         <v>8</v>
       </c>
       <c r="F149">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G149" t="s">
         <v>36</v>
@@ -6071,7 +6044,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>3</v>
       </c>
@@ -6082,10 +6055,10 @@
         <v>8</v>
       </c>
       <c r="F150">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G150" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -6100,7 +6073,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>3</v>
       </c>
@@ -6111,10 +6084,10 @@
         <v>8</v>
       </c>
       <c r="F151">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G151" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -6129,7 +6102,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>3</v>
       </c>
@@ -6140,7 +6113,7 @@
         <v>8</v>
       </c>
       <c r="F152">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G152" t="s">
         <v>31</v>
@@ -6158,7 +6131,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>3</v>
       </c>
@@ -6169,7 +6142,7 @@
         <v>8</v>
       </c>
       <c r="F153">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G153" t="s">
         <v>31</v>
@@ -6187,7 +6160,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>3</v>
       </c>
@@ -6198,7 +6171,7 @@
         <v>8</v>
       </c>
       <c r="F154">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G154" t="s">
         <v>31</v>
@@ -6216,7 +6189,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>3</v>
       </c>
@@ -6227,7 +6200,7 @@
         <v>8</v>
       </c>
       <c r="F155">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G155" t="s">
         <v>31</v>
@@ -6245,7 +6218,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>3</v>
       </c>
@@ -6256,7 +6229,7 @@
         <v>8</v>
       </c>
       <c r="F156">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G156" t="s">
         <v>31</v>
@@ -6274,7 +6247,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>3</v>
       </c>
@@ -6285,7 +6258,7 @@
         <v>8</v>
       </c>
       <c r="F157">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G157" t="s">
         <v>31</v>
@@ -6303,7 +6276,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>3</v>
       </c>
@@ -6314,7 +6287,7 @@
         <v>8</v>
       </c>
       <c r="F158">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G158" t="s">
         <v>31</v>
@@ -6332,7 +6305,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>3</v>
       </c>
@@ -6343,10 +6316,10 @@
         <v>8</v>
       </c>
       <c r="F159">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G159" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -6361,7 +6334,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>3</v>
       </c>
@@ -6372,10 +6345,10 @@
         <v>8</v>
       </c>
       <c r="F160">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G160" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -6390,7 +6363,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>3</v>
       </c>
@@ -6401,7 +6374,7 @@
         <v>8</v>
       </c>
       <c r="F161">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G161" t="s">
         <v>36</v>
@@ -6419,7 +6392,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>3</v>
       </c>
@@ -6430,7 +6403,7 @@
         <v>8</v>
       </c>
       <c r="F162">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G162" t="s">
         <v>36</v>
@@ -6448,7 +6421,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>3</v>
       </c>
@@ -6459,7 +6432,7 @@
         <v>8</v>
       </c>
       <c r="F163">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G163" t="s">
         <v>36</v>
@@ -6477,7 +6450,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>3</v>
       </c>
@@ -6488,7 +6461,7 @@
         <v>8</v>
       </c>
       <c r="F164">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G164" t="s">
         <v>36</v>
@@ -6506,7 +6479,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>3</v>
       </c>
@@ -6517,10 +6490,10 @@
         <v>8</v>
       </c>
       <c r="F165">
-        <v>750</v>
+        <v>160</v>
       </c>
       <c r="G165" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -6535,7 +6508,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3</v>
       </c>
@@ -6546,10 +6519,10 @@
         <v>8</v>
       </c>
       <c r="F166">
-        <v>750</v>
+        <v>160</v>
       </c>
       <c r="G166" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -6564,7 +6537,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>3</v>
       </c>
@@ -6575,7 +6548,7 @@
         <v>8</v>
       </c>
       <c r="F167">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G167" t="s">
         <v>31</v>
@@ -6593,7 +6566,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>3</v>
       </c>
@@ -6604,7 +6577,7 @@
         <v>8</v>
       </c>
       <c r="F168">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G168" t="s">
         <v>31</v>
@@ -6622,7 +6595,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>3</v>
       </c>
@@ -6633,7 +6606,7 @@
         <v>8</v>
       </c>
       <c r="F169">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G169" t="s">
         <v>31</v>
@@ -6651,7 +6624,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>3</v>
       </c>
@@ -6662,7 +6635,7 @@
         <v>8</v>
       </c>
       <c r="F170">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G170" t="s">
         <v>31</v>
@@ -6680,7 +6653,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>3</v>
       </c>
@@ -6691,7 +6664,7 @@
         <v>8</v>
       </c>
       <c r="F171">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G171" t="s">
         <v>31</v>
@@ -6709,7 +6682,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>3</v>
       </c>
@@ -6720,7 +6693,7 @@
         <v>8</v>
       </c>
       <c r="F172">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G172" t="s">
         <v>31</v>
@@ -6738,7 +6711,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>3</v>
       </c>
@@ -6749,7 +6722,7 @@
         <v>8</v>
       </c>
       <c r="F173">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G173" t="s">
         <v>31</v>
@@ -6767,7 +6740,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>3</v>
       </c>
@@ -6778,10 +6751,10 @@
         <v>8</v>
       </c>
       <c r="F174">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G174" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -6796,7 +6769,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>3</v>
       </c>
@@ -6807,10 +6780,10 @@
         <v>8</v>
       </c>
       <c r="F175">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G175" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -6825,7 +6798,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>3</v>
       </c>
@@ -6836,7 +6809,7 @@
         <v>8</v>
       </c>
       <c r="F176">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G176" t="s">
         <v>36</v>
@@ -6854,7 +6827,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>3</v>
       </c>
@@ -6865,7 +6838,7 @@
         <v>8</v>
       </c>
       <c r="F177">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G177" t="s">
         <v>36</v>
@@ -6883,7 +6856,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>3</v>
       </c>
@@ -6894,7 +6867,7 @@
         <v>8</v>
       </c>
       <c r="F178">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G178" t="s">
         <v>36</v>
@@ -6912,7 +6885,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>3</v>
       </c>
@@ -6923,7 +6896,7 @@
         <v>8</v>
       </c>
       <c r="F179">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G179" t="s">
         <v>36</v>
@@ -6941,7 +6914,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3</v>
       </c>
@@ -6952,10 +6925,10 @@
         <v>8</v>
       </c>
       <c r="F180">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="G180" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -6970,7 +6943,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>3</v>
       </c>
@@ -6981,10 +6954,10 @@
         <v>8</v>
       </c>
       <c r="F181">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="G181" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -6999,7 +6972,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>3</v>
       </c>
@@ -7010,7 +6983,7 @@
         <v>8</v>
       </c>
       <c r="F182">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G182" t="s">
         <v>31</v>
@@ -7028,7 +7001,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>3</v>
       </c>
@@ -7039,7 +7012,7 @@
         <v>8</v>
       </c>
       <c r="F183">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G183" t="s">
         <v>31</v>
@@ -7057,7 +7030,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3</v>
       </c>
@@ -7068,7 +7041,7 @@
         <v>8</v>
       </c>
       <c r="F184">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G184" t="s">
         <v>31</v>
@@ -7086,7 +7059,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>3</v>
       </c>
@@ -7097,7 +7070,7 @@
         <v>8</v>
       </c>
       <c r="F185">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G185" t="s">
         <v>31</v>
@@ -7115,7 +7088,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>3</v>
       </c>
@@ -7126,7 +7099,7 @@
         <v>8</v>
       </c>
       <c r="F186">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G186" t="s">
         <v>31</v>
@@ -7144,7 +7117,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>3</v>
       </c>
@@ -7155,7 +7128,7 @@
         <v>8</v>
       </c>
       <c r="F187">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G187" t="s">
         <v>31</v>
@@ -7173,7 +7146,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>3</v>
       </c>
@@ -7184,7 +7157,7 @@
         <v>8</v>
       </c>
       <c r="F188">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G188" t="s">
         <v>31</v>
@@ -7202,7 +7175,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>3</v>
       </c>
@@ -7213,10 +7186,10 @@
         <v>8</v>
       </c>
       <c r="F189">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G189" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -7231,7 +7204,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>3</v>
       </c>
@@ -7242,10 +7215,10 @@
         <v>8</v>
       </c>
       <c r="F190">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G190" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -7260,7 +7233,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>3</v>
       </c>
@@ -7271,7 +7244,7 @@
         <v>8</v>
       </c>
       <c r="F191">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G191" t="s">
         <v>36</v>
@@ -7289,7 +7262,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3</v>
       </c>
@@ -7300,7 +7273,7 @@
         <v>8</v>
       </c>
       <c r="F192">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G192" t="s">
         <v>36</v>
@@ -7318,7 +7291,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>3</v>
       </c>
@@ -7329,7 +7302,7 @@
         <v>8</v>
       </c>
       <c r="F193">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G193" t="s">
         <v>36</v>
@@ -7347,7 +7320,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>3</v>
       </c>
@@ -7358,7 +7331,7 @@
         <v>8</v>
       </c>
       <c r="F194">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G194" t="s">
         <v>36</v>
@@ -7376,7 +7349,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>3</v>
       </c>
@@ -7387,10 +7360,10 @@
         <v>8</v>
       </c>
       <c r="F195">
-        <v>3000</v>
+        <v>640</v>
       </c>
       <c r="G195" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -7405,7 +7378,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>3</v>
       </c>
@@ -7416,10 +7389,10 @@
         <v>8</v>
       </c>
       <c r="F196">
-        <v>3000</v>
+        <v>640</v>
       </c>
       <c r="G196" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -7434,7 +7407,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>3</v>
       </c>
@@ -7445,7 +7418,7 @@
         <v>8</v>
       </c>
       <c r="F197">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G197" t="s">
         <v>31</v>
@@ -7463,7 +7436,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>3</v>
       </c>
@@ -7474,7 +7447,7 @@
         <v>8</v>
       </c>
       <c r="F198">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G198" t="s">
         <v>31</v>
@@ -7492,7 +7465,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>3</v>
       </c>
@@ -7503,7 +7476,7 @@
         <v>8</v>
       </c>
       <c r="F199">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G199" t="s">
         <v>31</v>
@@ -7521,7 +7494,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>3</v>
       </c>
@@ -7532,7 +7505,7 @@
         <v>8</v>
       </c>
       <c r="F200">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G200" t="s">
         <v>31</v>
@@ -7550,7 +7523,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>3</v>
       </c>
@@ -7561,7 +7534,7 @@
         <v>8</v>
       </c>
       <c r="F201">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G201" t="s">
         <v>31</v>
@@ -7579,7 +7552,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>3</v>
       </c>
@@ -7590,7 +7563,7 @@
         <v>8</v>
       </c>
       <c r="F202">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G202" t="s">
         <v>31</v>
@@ -7602,7 +7575,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>3</v>
       </c>
@@ -7613,7 +7586,7 @@
         <v>8</v>
       </c>
       <c r="F203">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G203" t="s">
         <v>31</v>
@@ -7625,7 +7598,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>3</v>
       </c>
@@ -7636,10 +7609,10 @@
         <v>8</v>
       </c>
       <c r="F204">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G204" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -7648,7 +7621,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>3</v>
       </c>
@@ -7659,10 +7632,10 @@
         <v>8</v>
       </c>
       <c r="F205">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G205" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -7671,7 +7644,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>3</v>
       </c>
@@ -7682,7 +7655,7 @@
         <v>8</v>
       </c>
       <c r="F206">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G206" t="s">
         <v>36</v>
@@ -7694,7 +7667,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>3</v>
       </c>
@@ -7705,7 +7678,7 @@
         <v>8</v>
       </c>
       <c r="F207">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G207" t="s">
         <v>36</v>
@@ -7717,7 +7690,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>3</v>
       </c>
@@ -7728,7 +7701,7 @@
         <v>8</v>
       </c>
       <c r="F208">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G208" t="s">
         <v>36</v>
@@ -7740,7 +7713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>3</v>
       </c>
@@ -7751,7 +7724,7 @@
         <v>8</v>
       </c>
       <c r="F209">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G209" t="s">
         <v>36</v>
@@ -7763,7 +7736,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>3</v>
       </c>
@@ -7774,19 +7747,19 @@
         <v>8</v>
       </c>
       <c r="F210">
-        <v>600</v>
+        <v>1280</v>
       </c>
       <c r="G210" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>3</v>
       </c>
@@ -7797,19 +7770,19 @@
         <v>8</v>
       </c>
       <c r="F211">
-        <v>600</v>
+        <v>1280</v>
       </c>
       <c r="G211" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>3</v>
       </c>
@@ -7832,7 +7805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>3</v>
       </c>
@@ -7855,7 +7828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>3</v>
       </c>
@@ -7878,7 +7851,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>3</v>
       </c>
@@ -7901,7 +7874,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>3</v>
       </c>
@@ -7915,7 +7888,7 @@
         <v>600</v>
       </c>
       <c r="G216" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H216">
         <v>1</v>
@@ -7924,7 +7897,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>3</v>
       </c>
@@ -7938,7 +7911,7 @@
         <v>600</v>
       </c>
       <c r="G217" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H217">
         <v>1</v>
@@ -7947,7 +7920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>3</v>
       </c>
@@ -7970,7 +7943,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>3</v>
       </c>
@@ -7993,89 +7966,74 @@
         <v>18</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>3</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
       <c r="E220" t="s">
+        <v>8</v>
+      </c>
+      <c r="F220">
+        <v>600</v>
+      </c>
+      <c r="G220" t="s">
+        <v>36</v>
+      </c>
+      <c r="H220">
+        <v>1</v>
+      </c>
+      <c r="I220" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>3</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+      <c r="E221" t="s">
+        <v>8</v>
+      </c>
+      <c r="F221">
+        <v>600</v>
+      </c>
+      <c r="G221" t="s">
+        <v>36</v>
+      </c>
+      <c r="H221">
+        <v>1</v>
+      </c>
+      <c r="I221" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B222">
+        <v>2</v>
+      </c>
+      <c r="E222" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E223" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B221">
-        <v>3</v>
-      </c>
-      <c r="E221" t="s">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B224">
+        <v>3</v>
+      </c>
+      <c r="E224" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A222">
-        <v>4</v>
-      </c>
-      <c r="B222">
-        <v>3</v>
-      </c>
-      <c r="E222" t="s">
-        <v>8</v>
-      </c>
-      <c r="F222">
-        <v>100</v>
-      </c>
-      <c r="G222" t="s">
-        <v>36</v>
-      </c>
-      <c r="H222">
-        <v>0</v>
-      </c>
-      <c r="I222" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A223">
-        <v>4</v>
-      </c>
-      <c r="B223">
-        <v>3</v>
-      </c>
-      <c r="E223" t="s">
-        <v>8</v>
-      </c>
-      <c r="F223">
-        <v>100</v>
-      </c>
-      <c r="G223" t="s">
-        <v>36</v>
-      </c>
-      <c r="H223">
-        <v>0</v>
-      </c>
-      <c r="I223" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A224">
-        <v>4</v>
-      </c>
-      <c r="B224">
-        <v>3</v>
-      </c>
-      <c r="E224" t="s">
-        <v>8</v>
-      </c>
-      <c r="F224">
-        <v>100</v>
-      </c>
-      <c r="G224" t="s">
-        <v>36</v>
-      </c>
-      <c r="H224">
-        <v>0</v>
-      </c>
-      <c r="I224" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>4</v>
       </c>
@@ -8086,7 +8044,7 @@
         <v>8</v>
       </c>
       <c r="F225">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G225" t="s">
         <v>36</v>
@@ -8098,7 +8056,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>4</v>
       </c>
@@ -8109,7 +8067,7 @@
         <v>8</v>
       </c>
       <c r="F226">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G226" t="s">
         <v>36</v>
@@ -8121,7 +8079,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>4</v>
       </c>
@@ -8132,7 +8090,7 @@
         <v>8</v>
       </c>
       <c r="F227">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G227" t="s">
         <v>36</v>
@@ -8144,7 +8102,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>4</v>
       </c>
@@ -8155,7 +8113,7 @@
         <v>8</v>
       </c>
       <c r="F228">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G228" t="s">
         <v>36</v>
@@ -8167,7 +8125,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>4</v>
       </c>
@@ -8178,7 +8136,7 @@
         <v>8</v>
       </c>
       <c r="F229">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G229" t="s">
         <v>36</v>
@@ -8190,7 +8148,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>4</v>
       </c>
@@ -8201,7 +8159,7 @@
         <v>8</v>
       </c>
       <c r="F230">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G230" t="s">
         <v>36</v>
@@ -8213,7 +8171,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>4</v>
       </c>
@@ -8224,10 +8182,10 @@
         <v>8</v>
       </c>
       <c r="F231">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G231" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -8236,7 +8194,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>4</v>
       </c>
@@ -8247,10 +8205,10 @@
         <v>8</v>
       </c>
       <c r="F232">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G232" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -8259,7 +8217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>4</v>
       </c>
@@ -8270,10 +8228,10 @@
         <v>8</v>
       </c>
       <c r="F233">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G233" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -8282,7 +8240,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>4</v>
       </c>
@@ -8293,7 +8251,7 @@
         <v>8</v>
       </c>
       <c r="F234">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G234" t="s">
         <v>31</v>
@@ -8305,7 +8263,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>4</v>
       </c>
@@ -8316,7 +8274,7 @@
         <v>8</v>
       </c>
       <c r="F235">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G235" t="s">
         <v>31</v>
@@ -8328,7 +8286,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>4</v>
       </c>
@@ -8339,7 +8297,7 @@
         <v>8</v>
       </c>
       <c r="F236">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G236" t="s">
         <v>31</v>
@@ -8351,7 +8309,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>4</v>
       </c>
@@ -8362,10 +8320,10 @@
         <v>8</v>
       </c>
       <c r="F237">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="G237" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -8374,7 +8332,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>4</v>
       </c>
@@ -8385,10 +8343,10 @@
         <v>8</v>
       </c>
       <c r="F238">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="G238" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -8397,7 +8355,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>4</v>
       </c>
@@ -8408,10 +8366,10 @@
         <v>8</v>
       </c>
       <c r="F239">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="G239" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -8420,7 +8378,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>4</v>
       </c>
@@ -8431,7 +8389,7 @@
         <v>8</v>
       </c>
       <c r="F240">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G240" t="s">
         <v>36</v>
@@ -8443,7 +8401,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>4</v>
       </c>
@@ -8454,7 +8412,7 @@
         <v>8</v>
       </c>
       <c r="F241">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G241" t="s">
         <v>36</v>
@@ -8466,7 +8424,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>4</v>
       </c>
@@ -8477,7 +8435,7 @@
         <v>8</v>
       </c>
       <c r="F242">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G242" t="s">
         <v>36</v>
@@ -8489,7 +8447,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>4</v>
       </c>
@@ -8500,7 +8458,7 @@
         <v>8</v>
       </c>
       <c r="F243">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G243" t="s">
         <v>36</v>
@@ -8512,7 +8470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>4</v>
       </c>
@@ -8523,7 +8481,7 @@
         <v>8</v>
       </c>
       <c r="F244">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G244" t="s">
         <v>36</v>
@@ -8535,7 +8493,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>4</v>
       </c>
@@ -8546,7 +8504,7 @@
         <v>8</v>
       </c>
       <c r="F245">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G245" t="s">
         <v>36</v>
@@ -8558,7 +8516,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>4</v>
       </c>
@@ -8569,10 +8527,10 @@
         <v>8</v>
       </c>
       <c r="F246">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G246" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -8581,7 +8539,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>4</v>
       </c>
@@ -8592,10 +8550,10 @@
         <v>8</v>
       </c>
       <c r="F247">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G247" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -8604,7 +8562,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>4</v>
       </c>
@@ -8615,10 +8573,10 @@
         <v>8</v>
       </c>
       <c r="F248">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G248" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -8627,7 +8585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>4</v>
       </c>
@@ -8638,7 +8596,7 @@
         <v>8</v>
       </c>
       <c r="F249">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G249" t="s">
         <v>31</v>
@@ -8650,7 +8608,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>4</v>
       </c>
@@ -8661,7 +8619,7 @@
         <v>8</v>
       </c>
       <c r="F250">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G250" t="s">
         <v>31</v>
@@ -8673,7 +8631,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>4</v>
       </c>
@@ -8684,7 +8642,7 @@
         <v>8</v>
       </c>
       <c r="F251">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G251" t="s">
         <v>31</v>
@@ -8696,7 +8654,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>4</v>
       </c>
@@ -8707,10 +8665,10 @@
         <v>8</v>
       </c>
       <c r="F252">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G252" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -8719,7 +8677,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>4</v>
       </c>
@@ -8730,10 +8688,10 @@
         <v>8</v>
       </c>
       <c r="F253">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G253" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -8742,7 +8700,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>4</v>
       </c>
@@ -8753,10 +8711,10 @@
         <v>8</v>
       </c>
       <c r="F254">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G254" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -8765,7 +8723,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>4</v>
       </c>
@@ -8776,7 +8734,7 @@
         <v>8</v>
       </c>
       <c r="F255">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G255" t="s">
         <v>36</v>
@@ -8788,7 +8746,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>4</v>
       </c>
@@ -8799,7 +8757,7 @@
         <v>8</v>
       </c>
       <c r="F256">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G256" t="s">
         <v>36</v>
@@ -8811,7 +8769,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>4</v>
       </c>
@@ -8822,7 +8780,7 @@
         <v>8</v>
       </c>
       <c r="F257">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G257" t="s">
         <v>36</v>
@@ -8834,7 +8792,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>4</v>
       </c>
@@ -8845,7 +8803,7 @@
         <v>8</v>
       </c>
       <c r="F258">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G258" t="s">
         <v>36</v>
@@ -8857,7 +8815,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>4</v>
       </c>
@@ -8868,7 +8826,7 @@
         <v>8</v>
       </c>
       <c r="F259">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G259" t="s">
         <v>36</v>
@@ -8880,7 +8838,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>4</v>
       </c>
@@ -8891,7 +8849,7 @@
         <v>8</v>
       </c>
       <c r="F260">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G260" t="s">
         <v>36</v>
@@ -8903,7 +8861,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>4</v>
       </c>
@@ -8914,10 +8872,10 @@
         <v>8</v>
       </c>
       <c r="F261">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G261" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -8926,7 +8884,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>4</v>
       </c>
@@ -8937,10 +8895,10 @@
         <v>8</v>
       </c>
       <c r="F262">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G262" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -8949,7 +8907,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>4</v>
       </c>
@@ -8960,10 +8918,10 @@
         <v>8</v>
       </c>
       <c r="F263">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G263" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -8972,7 +8930,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>4</v>
       </c>
@@ -8983,7 +8941,7 @@
         <v>8</v>
       </c>
       <c r="F264">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G264" t="s">
         <v>31</v>
@@ -8995,7 +8953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>4</v>
       </c>
@@ -9006,7 +8964,7 @@
         <v>8</v>
       </c>
       <c r="F265">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G265" t="s">
         <v>31</v>
@@ -9018,7 +8976,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>4</v>
       </c>
@@ -9029,7 +8987,7 @@
         <v>8</v>
       </c>
       <c r="F266">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G266" t="s">
         <v>31</v>
@@ -9041,7 +8999,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>4</v>
       </c>
@@ -9052,10 +9010,10 @@
         <v>8</v>
       </c>
       <c r="F267">
-        <v>750</v>
+        <v>160</v>
       </c>
       <c r="G267" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H267">
         <v>0</v>
@@ -9064,7 +9022,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>4</v>
       </c>
@@ -9075,10 +9033,10 @@
         <v>8</v>
       </c>
       <c r="F268">
-        <v>750</v>
+        <v>160</v>
       </c>
       <c r="G268" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -9087,7 +9045,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>4</v>
       </c>
@@ -9098,10 +9056,10 @@
         <v>8</v>
       </c>
       <c r="F269">
-        <v>750</v>
+        <v>160</v>
       </c>
       <c r="G269" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -9110,7 +9068,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>4</v>
       </c>
@@ -9121,7 +9079,7 @@
         <v>8</v>
       </c>
       <c r="F270">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G270" t="s">
         <v>36</v>
@@ -9133,7 +9091,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>4</v>
       </c>
@@ -9144,7 +9102,7 @@
         <v>8</v>
       </c>
       <c r="F271">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G271" t="s">
         <v>36</v>
@@ -9156,7 +9114,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>4</v>
       </c>
@@ -9167,7 +9125,7 @@
         <v>8</v>
       </c>
       <c r="F272">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G272" t="s">
         <v>36</v>
@@ -9179,7 +9137,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>4</v>
       </c>
@@ -9190,7 +9148,7 @@
         <v>8</v>
       </c>
       <c r="F273">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G273" t="s">
         <v>36</v>
@@ -9202,7 +9160,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>4</v>
       </c>
@@ -9213,7 +9171,7 @@
         <v>8</v>
       </c>
       <c r="F274">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G274" t="s">
         <v>36</v>
@@ -9225,7 +9183,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>4</v>
       </c>
@@ -9236,7 +9194,7 @@
         <v>8</v>
       </c>
       <c r="F275">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G275" t="s">
         <v>36</v>
@@ -9248,7 +9206,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>4</v>
       </c>
@@ -9259,10 +9217,10 @@
         <v>8</v>
       </c>
       <c r="F276">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G276" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H276">
         <v>0</v>
@@ -9271,7 +9229,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>4</v>
       </c>
@@ -9282,10 +9240,10 @@
         <v>8</v>
       </c>
       <c r="F277">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G277" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H277">
         <v>0</v>
@@ -9294,7 +9252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>4</v>
       </c>
@@ -9305,10 +9263,10 @@
         <v>8</v>
       </c>
       <c r="F278">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G278" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H278">
         <v>0</v>
@@ -9317,7 +9275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>4</v>
       </c>
@@ -9328,7 +9286,7 @@
         <v>8</v>
       </c>
       <c r="F279">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G279" t="s">
         <v>31</v>
@@ -9340,7 +9298,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>4</v>
       </c>
@@ -9351,7 +9309,7 @@
         <v>8</v>
       </c>
       <c r="F280">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G280" t="s">
         <v>31</v>
@@ -9363,7 +9321,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>4</v>
       </c>
@@ -9374,7 +9332,7 @@
         <v>8</v>
       </c>
       <c r="F281">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G281" t="s">
         <v>31</v>
@@ -9386,7 +9344,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>4</v>
       </c>
@@ -9397,10 +9355,10 @@
         <v>8</v>
       </c>
       <c r="F282">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="G282" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H282">
         <v>0</v>
@@ -9409,7 +9367,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>4</v>
       </c>
@@ -9420,10 +9378,10 @@
         <v>8</v>
       </c>
       <c r="F283">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="G283" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H283">
         <v>0</v>
@@ -9432,7 +9390,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>4</v>
       </c>
@@ -9443,10 +9401,10 @@
         <v>8</v>
       </c>
       <c r="F284">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="G284" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -9455,7 +9413,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>4</v>
       </c>
@@ -9466,7 +9424,7 @@
         <v>8</v>
       </c>
       <c r="F285">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G285" t="s">
         <v>36</v>
@@ -9478,7 +9436,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>4</v>
       </c>
@@ -9489,7 +9447,7 @@
         <v>8</v>
       </c>
       <c r="F286">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G286" t="s">
         <v>36</v>
@@ -9501,7 +9459,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>4</v>
       </c>
@@ -9512,7 +9470,7 @@
         <v>8</v>
       </c>
       <c r="F287">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G287" t="s">
         <v>36</v>
@@ -9524,7 +9482,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>4</v>
       </c>
@@ -9535,7 +9493,7 @@
         <v>8</v>
       </c>
       <c r="F288">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G288" t="s">
         <v>36</v>
@@ -9547,7 +9505,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>4</v>
       </c>
@@ -9558,7 +9516,7 @@
         <v>8</v>
       </c>
       <c r="F289">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G289" t="s">
         <v>36</v>
@@ -9570,7 +9528,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>4</v>
       </c>
@@ -9581,7 +9539,7 @@
         <v>8</v>
       </c>
       <c r="F290">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G290" t="s">
         <v>36</v>
@@ -9593,7 +9551,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>4</v>
       </c>
@@ -9604,10 +9562,10 @@
         <v>8</v>
       </c>
       <c r="F291">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G291" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H291">
         <v>0</v>
@@ -9616,7 +9574,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>4</v>
       </c>
@@ -9627,10 +9585,10 @@
         <v>8</v>
       </c>
       <c r="F292">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G292" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -9639,7 +9597,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>4</v>
       </c>
@@ -9650,10 +9608,10 @@
         <v>8</v>
       </c>
       <c r="F293">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G293" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H293">
         <v>0</v>
@@ -9662,7 +9620,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>4</v>
       </c>
@@ -9673,7 +9631,7 @@
         <v>8</v>
       </c>
       <c r="F294">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G294" t="s">
         <v>31</v>
@@ -9685,7 +9643,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>4</v>
       </c>
@@ -9696,7 +9654,7 @@
         <v>8</v>
       </c>
       <c r="F295">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G295" t="s">
         <v>31</v>
@@ -9708,7 +9666,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>4</v>
       </c>
@@ -9719,7 +9677,7 @@
         <v>8</v>
       </c>
       <c r="F296">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G296" t="s">
         <v>31</v>
@@ -9731,7 +9689,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>4</v>
       </c>
@@ -9742,10 +9700,10 @@
         <v>8</v>
       </c>
       <c r="F297">
-        <v>3000</v>
+        <v>640</v>
       </c>
       <c r="G297" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H297">
         <v>0</v>
@@ -9754,7 +9712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>4</v>
       </c>
@@ -9765,10 +9723,10 @@
         <v>8</v>
       </c>
       <c r="F298">
-        <v>3000</v>
+        <v>640</v>
       </c>
       <c r="G298" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -9777,7 +9735,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>4</v>
       </c>
@@ -9788,10 +9746,10 @@
         <v>8</v>
       </c>
       <c r="F299">
-        <v>3000</v>
+        <v>640</v>
       </c>
       <c r="G299" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -9800,7 +9758,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>4</v>
       </c>
@@ -9811,7 +9769,7 @@
         <v>8</v>
       </c>
       <c r="F300">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G300" t="s">
         <v>36</v>
@@ -9823,7 +9781,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>4</v>
       </c>
@@ -9834,7 +9792,7 @@
         <v>8</v>
       </c>
       <c r="F301">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G301" t="s">
         <v>36</v>
@@ -9846,7 +9804,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>4</v>
       </c>
@@ -9857,7 +9815,7 @@
         <v>8</v>
       </c>
       <c r="F302">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G302" t="s">
         <v>36</v>
@@ -9869,7 +9827,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>4</v>
       </c>
@@ -9880,7 +9838,7 @@
         <v>8</v>
       </c>
       <c r="F303">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G303" t="s">
         <v>36</v>
@@ -9892,7 +9850,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>4</v>
       </c>
@@ -9903,7 +9861,7 @@
         <v>8</v>
       </c>
       <c r="F304">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G304" t="s">
         <v>36</v>
@@ -9915,7 +9873,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>4</v>
       </c>
@@ -9926,7 +9884,7 @@
         <v>8</v>
       </c>
       <c r="F305">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G305" t="s">
         <v>36</v>
@@ -9938,7 +9896,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>4</v>
       </c>
@@ -9949,10 +9907,10 @@
         <v>8</v>
       </c>
       <c r="F306">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G306" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H306">
         <v>0</v>
@@ -9961,7 +9919,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>4</v>
       </c>
@@ -9972,10 +9930,10 @@
         <v>8</v>
       </c>
       <c r="F307">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G307" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H307">
         <v>0</v>
@@ -9984,7 +9942,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>4</v>
       </c>
@@ -9995,10 +9953,10 @@
         <v>8</v>
       </c>
       <c r="F308">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G308" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H308">
         <v>0</v>
@@ -10007,7 +9965,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>4</v>
       </c>
@@ -10018,7 +9976,7 @@
         <v>8</v>
       </c>
       <c r="F309">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G309" t="s">
         <v>31</v>
@@ -10030,7 +9988,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>4</v>
       </c>
@@ -10041,7 +9999,7 @@
         <v>8</v>
       </c>
       <c r="F310">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G310" t="s">
         <v>31</v>
@@ -10053,7 +10011,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>4</v>
       </c>
@@ -10064,7 +10022,7 @@
         <v>8</v>
       </c>
       <c r="F311">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G311" t="s">
         <v>31</v>
@@ -10076,7 +10034,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>4</v>
       </c>
@@ -10087,19 +10045,19 @@
         <v>8</v>
       </c>
       <c r="F312">
-        <v>600</v>
+        <v>1280</v>
       </c>
       <c r="G312" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>4</v>
       </c>
@@ -10110,19 +10068,19 @@
         <v>8</v>
       </c>
       <c r="F313">
-        <v>600</v>
+        <v>1280</v>
       </c>
       <c r="G313" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>4</v>
       </c>
@@ -10133,19 +10091,19 @@
         <v>8</v>
       </c>
       <c r="F314">
-        <v>600</v>
+        <v>1280</v>
       </c>
       <c r="G314" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>4</v>
       </c>
@@ -10168,7 +10126,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>4</v>
       </c>
@@ -10191,7 +10149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>4</v>
       </c>
@@ -10214,7 +10172,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>4</v>
       </c>
@@ -10228,7 +10186,7 @@
         <v>600</v>
       </c>
       <c r="G318" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H318">
         <v>1</v>
@@ -10237,7 +10195,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>4</v>
       </c>
@@ -10251,7 +10209,7 @@
         <v>600</v>
       </c>
       <c r="G319" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H319">
         <v>1</v>
@@ -10260,7 +10218,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>4</v>
       </c>
@@ -10274,7 +10232,7 @@
         <v>600</v>
       </c>
       <c r="G320" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H320">
         <v>1</v>
@@ -10283,7 +10241,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>4</v>
       </c>
@@ -10306,112 +10264,97 @@
         <v>19</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>4</v>
+      </c>
+      <c r="B322">
+        <v>3</v>
+      </c>
       <c r="E322" t="s">
+        <v>8</v>
+      </c>
+      <c r="F322">
+        <v>600</v>
+      </c>
+      <c r="G322" t="s">
+        <v>31</v>
+      </c>
+      <c r="H322">
+        <v>1</v>
+      </c>
+      <c r="I322" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>4</v>
+      </c>
+      <c r="B323">
+        <v>3</v>
+      </c>
+      <c r="E323" t="s">
+        <v>8</v>
+      </c>
+      <c r="F323">
+        <v>600</v>
+      </c>
+      <c r="G323" t="s">
+        <v>31</v>
+      </c>
+      <c r="H323">
+        <v>1</v>
+      </c>
+      <c r="I323" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>4</v>
+      </c>
+      <c r="B324">
+        <v>3</v>
+      </c>
+      <c r="E324" t="s">
+        <v>8</v>
+      </c>
+      <c r="F324">
+        <v>600</v>
+      </c>
+      <c r="G324" t="s">
+        <v>31</v>
+      </c>
+      <c r="H324">
+        <v>1</v>
+      </c>
+      <c r="I324" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B325">
+        <v>3</v>
+      </c>
+      <c r="E325" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E326" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="B323">
-        <v>4</v>
-      </c>
-      <c r="E323" t="s">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B327">
+        <v>4</v>
+      </c>
+      <c r="E327" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A324">
-        <v>5</v>
-      </c>
-      <c r="B324">
-        <v>4</v>
-      </c>
-      <c r="E324" t="s">
-        <v>8</v>
-      </c>
-      <c r="F324">
-        <v>100</v>
-      </c>
-      <c r="G324" t="s">
-        <v>31</v>
-      </c>
-      <c r="H324">
-        <v>0</v>
-      </c>
-      <c r="I324" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A325">
-        <v>5</v>
-      </c>
-      <c r="B325">
-        <v>4</v>
-      </c>
-      <c r="E325" t="s">
-        <v>8</v>
-      </c>
-      <c r="F325">
-        <v>100</v>
-      </c>
-      <c r="G325" t="s">
-        <v>31</v>
-      </c>
-      <c r="H325">
-        <v>0</v>
-      </c>
-      <c r="I325" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A326">
-        <v>5</v>
-      </c>
-      <c r="B326">
-        <v>4</v>
-      </c>
-      <c r="E326" t="s">
-        <v>8</v>
-      </c>
-      <c r="F326">
-        <v>100</v>
-      </c>
-      <c r="G326" t="s">
-        <v>31</v>
-      </c>
-      <c r="H326">
-        <v>0</v>
-      </c>
-      <c r="I326" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A327">
-        <v>5</v>
-      </c>
-      <c r="B327">
-        <v>4</v>
-      </c>
-      <c r="E327" t="s">
-        <v>8</v>
-      </c>
-      <c r="F327">
-        <v>100</v>
-      </c>
-      <c r="G327" t="s">
-        <v>31</v>
-      </c>
-      <c r="H327">
-        <v>0</v>
-      </c>
-      <c r="I327" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>5</v>
       </c>
@@ -10422,7 +10365,7 @@
         <v>8</v>
       </c>
       <c r="F328">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G328" t="s">
         <v>31</v>
@@ -10434,7 +10377,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>5</v>
       </c>
@@ -10445,7 +10388,7 @@
         <v>8</v>
       </c>
       <c r="F329">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G329" t="s">
         <v>31</v>
@@ -10457,7 +10400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>5</v>
       </c>
@@ -10468,7 +10411,7 @@
         <v>8</v>
       </c>
       <c r="F330">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G330" t="s">
         <v>31</v>
@@ -10480,7 +10423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>5</v>
       </c>
@@ -10491,7 +10434,7 @@
         <v>8</v>
       </c>
       <c r="F331">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G331" t="s">
         <v>31</v>
@@ -10503,7 +10446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>5</v>
       </c>
@@ -10514,7 +10457,7 @@
         <v>8</v>
       </c>
       <c r="F332">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G332" t="s">
         <v>31</v>
@@ -10526,7 +10469,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>5</v>
       </c>
@@ -10537,10 +10480,10 @@
         <v>8</v>
       </c>
       <c r="F333">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G333" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H333">
         <v>0</v>
@@ -10549,7 +10492,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>5</v>
       </c>
@@ -10560,10 +10503,10 @@
         <v>8</v>
       </c>
       <c r="F334">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G334" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H334">
         <v>0</v>
@@ -10572,7 +10515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>5</v>
       </c>
@@ -10583,10 +10526,10 @@
         <v>8</v>
       </c>
       <c r="F335">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G335" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -10595,7 +10538,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>5</v>
       </c>
@@ -10606,10 +10549,10 @@
         <v>8</v>
       </c>
       <c r="F336">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G336" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H336">
         <v>0</v>
@@ -10618,7 +10561,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>5</v>
       </c>
@@ -10629,7 +10572,7 @@
         <v>8</v>
       </c>
       <c r="F337">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G337" t="s">
         <v>36</v>
@@ -10641,7 +10584,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>5</v>
       </c>
@@ -10652,7 +10595,7 @@
         <v>8</v>
       </c>
       <c r="F338">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="G338" t="s">
         <v>36</v>
@@ -10664,7 +10607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>5</v>
       </c>
@@ -10675,10 +10618,10 @@
         <v>8</v>
       </c>
       <c r="F339">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="G339" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H339">
         <v>0</v>
@@ -10687,7 +10630,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>5</v>
       </c>
@@ -10698,10 +10641,10 @@
         <v>8</v>
       </c>
       <c r="F340">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="G340" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H340">
         <v>0</v>
@@ -10710,7 +10653,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>5</v>
       </c>
@@ -10721,10 +10664,10 @@
         <v>8</v>
       </c>
       <c r="F341">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="G341" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H341">
         <v>0</v>
@@ -10733,7 +10676,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>5</v>
       </c>
@@ -10744,10 +10687,10 @@
         <v>8</v>
       </c>
       <c r="F342">
-        <v>300</v>
+        <v>40</v>
       </c>
       <c r="G342" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H342">
         <v>0</v>
@@ -10756,7 +10699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>5</v>
       </c>
@@ -10767,7 +10710,7 @@
         <v>8</v>
       </c>
       <c r="F343">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G343" t="s">
         <v>31</v>
@@ -10779,7 +10722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>5</v>
       </c>
@@ -10790,7 +10733,7 @@
         <v>8</v>
       </c>
       <c r="F344">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G344" t="s">
         <v>31</v>
@@ -10802,7 +10745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>5</v>
       </c>
@@ -10813,7 +10756,7 @@
         <v>8</v>
       </c>
       <c r="F345">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G345" t="s">
         <v>31</v>
@@ -10825,7 +10768,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>5</v>
       </c>
@@ -10836,7 +10779,7 @@
         <v>8</v>
       </c>
       <c r="F346">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G346" t="s">
         <v>31</v>
@@ -10848,7 +10791,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>5</v>
       </c>
@@ -10859,7 +10802,7 @@
         <v>8</v>
       </c>
       <c r="F347">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G347" t="s">
         <v>31</v>
@@ -10871,7 +10814,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>5</v>
       </c>
@@ -10882,10 +10825,10 @@
         <v>8</v>
       </c>
       <c r="F348">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G348" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H348">
         <v>0</v>
@@ -10894,7 +10837,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>5</v>
       </c>
@@ -10905,10 +10848,10 @@
         <v>8</v>
       </c>
       <c r="F349">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G349" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H349">
         <v>0</v>
@@ -10917,7 +10860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>5</v>
       </c>
@@ -10928,10 +10871,10 @@
         <v>8</v>
       </c>
       <c r="F350">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G350" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H350">
         <v>0</v>
@@ -10940,7 +10883,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>5</v>
       </c>
@@ -10951,10 +10894,10 @@
         <v>8</v>
       </c>
       <c r="F351">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G351" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H351">
         <v>0</v>
@@ -10963,7 +10906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>5</v>
       </c>
@@ -10974,7 +10917,7 @@
         <v>8</v>
       </c>
       <c r="F352">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G352" t="s">
         <v>36</v>
@@ -10986,7 +10929,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>5</v>
       </c>
@@ -10997,7 +10940,7 @@
         <v>8</v>
       </c>
       <c r="F353">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="G353" t="s">
         <v>36</v>
@@ -11009,7 +10952,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>5</v>
       </c>
@@ -11020,10 +10963,10 @@
         <v>8</v>
       </c>
       <c r="F354">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G354" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H354">
         <v>0</v>
@@ -11032,7 +10975,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>5</v>
       </c>
@@ -11043,10 +10986,10 @@
         <v>8</v>
       </c>
       <c r="F355">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G355" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H355">
         <v>0</v>
@@ -11055,7 +10998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>5</v>
       </c>
@@ -11066,10 +11009,10 @@
         <v>8</v>
       </c>
       <c r="F356">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G356" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H356">
         <v>0</v>
@@ -11078,7 +11021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>5</v>
       </c>
@@ -11089,10 +11032,10 @@
         <v>8</v>
       </c>
       <c r="F357">
-        <v>500</v>
+        <v>80</v>
       </c>
       <c r="G357" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H357">
         <v>0</v>
@@ -11101,7 +11044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>5</v>
       </c>
@@ -11112,7 +11055,7 @@
         <v>8</v>
       </c>
       <c r="F358">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G358" t="s">
         <v>31</v>
@@ -11124,7 +11067,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>5</v>
       </c>
@@ -11135,7 +11078,7 @@
         <v>8</v>
       </c>
       <c r="F359">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G359" t="s">
         <v>31</v>
@@ -11147,7 +11090,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>5</v>
       </c>
@@ -11158,7 +11101,7 @@
         <v>8</v>
       </c>
       <c r="F360">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G360" t="s">
         <v>31</v>
@@ -11170,7 +11113,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>5</v>
       </c>
@@ -11181,7 +11124,7 @@
         <v>8</v>
       </c>
       <c r="F361">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G361" t="s">
         <v>31</v>
@@ -11193,7 +11136,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>5</v>
       </c>
@@ -11204,7 +11147,7 @@
         <v>8</v>
       </c>
       <c r="F362">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G362" t="s">
         <v>31</v>
@@ -11216,7 +11159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>5</v>
       </c>
@@ -11227,10 +11170,10 @@
         <v>8</v>
       </c>
       <c r="F363">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G363" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H363">
         <v>0</v>
@@ -11239,7 +11182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>5</v>
       </c>
@@ -11250,10 +11193,10 @@
         <v>8</v>
       </c>
       <c r="F364">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G364" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H364">
         <v>0</v>
@@ -11262,7 +11205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>5</v>
       </c>
@@ -11273,10 +11216,10 @@
         <v>8</v>
       </c>
       <c r="F365">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G365" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H365">
         <v>0</v>
@@ -11285,7 +11228,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>5</v>
       </c>
@@ -11296,10 +11239,10 @@
         <v>8</v>
       </c>
       <c r="F366">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G366" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H366">
         <v>0</v>
@@ -11308,7 +11251,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>5</v>
       </c>
@@ -11319,7 +11262,7 @@
         <v>8</v>
       </c>
       <c r="F367">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G367" t="s">
         <v>36</v>
@@ -11331,7 +11274,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A368">
         <v>5</v>
       </c>
@@ -11342,7 +11285,7 @@
         <v>8</v>
       </c>
       <c r="F368">
-        <v>500</v>
+        <v>160</v>
       </c>
       <c r="G368" t="s">
         <v>36</v>
@@ -11354,7 +11297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A369">
         <v>5</v>
       </c>
@@ -11365,10 +11308,10 @@
         <v>8</v>
       </c>
       <c r="F369">
-        <v>750</v>
+        <v>160</v>
       </c>
       <c r="G369" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H369">
         <v>0</v>
@@ -11377,7 +11320,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A370">
         <v>5</v>
       </c>
@@ -11388,10 +11331,10 @@
         <v>8</v>
       </c>
       <c r="F370">
-        <v>750</v>
+        <v>160</v>
       </c>
       <c r="G370" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H370">
         <v>0</v>
@@ -11400,7 +11343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A371">
         <v>5</v>
       </c>
@@ -11411,10 +11354,10 @@
         <v>8</v>
       </c>
       <c r="F371">
-        <v>750</v>
+        <v>160</v>
       </c>
       <c r="G371" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H371">
         <v>0</v>
@@ -11423,7 +11366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A372">
         <v>5</v>
       </c>
@@ -11434,10 +11377,10 @@
         <v>8</v>
       </c>
       <c r="F372">
-        <v>750</v>
+        <v>160</v>
       </c>
       <c r="G372" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H372">
         <v>0</v>
@@ -11446,7 +11389,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A373">
         <v>5</v>
       </c>
@@ -11457,7 +11400,7 @@
         <v>8</v>
       </c>
       <c r="F373">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G373" t="s">
         <v>31</v>
@@ -11469,7 +11412,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A374">
         <v>5</v>
       </c>
@@ -11480,7 +11423,7 @@
         <v>8</v>
       </c>
       <c r="F374">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G374" t="s">
         <v>31</v>
@@ -11492,7 +11435,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A375">
         <v>5</v>
       </c>
@@ -11503,7 +11446,7 @@
         <v>8</v>
       </c>
       <c r="F375">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G375" t="s">
         <v>31</v>
@@ -11515,7 +11458,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A376">
         <v>5</v>
       </c>
@@ -11526,7 +11469,7 @@
         <v>8</v>
       </c>
       <c r="F376">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G376" t="s">
         <v>31</v>
@@ -11538,7 +11481,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A377">
         <v>5</v>
       </c>
@@ -11549,7 +11492,7 @@
         <v>8</v>
       </c>
       <c r="F377">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G377" t="s">
         <v>31</v>
@@ -11561,7 +11504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378">
         <v>5</v>
       </c>
@@ -11572,10 +11515,10 @@
         <v>8</v>
       </c>
       <c r="F378">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G378" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H378">
         <v>0</v>
@@ -11584,7 +11527,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A379">
         <v>5</v>
       </c>
@@ -11595,10 +11538,10 @@
         <v>8</v>
       </c>
       <c r="F379">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G379" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H379">
         <v>0</v>
@@ -11607,7 +11550,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A380">
         <v>5</v>
       </c>
@@ -11618,10 +11561,10 @@
         <v>8</v>
       </c>
       <c r="F380">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G380" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H380">
         <v>0</v>
@@ -11630,7 +11573,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A381">
         <v>5</v>
       </c>
@@ -11641,10 +11584,10 @@
         <v>8</v>
       </c>
       <c r="F381">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G381" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H381">
         <v>0</v>
@@ -11653,7 +11596,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A382">
         <v>5</v>
       </c>
@@ -11664,7 +11607,7 @@
         <v>8</v>
       </c>
       <c r="F382">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G382" t="s">
         <v>36</v>
@@ -11676,7 +11619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A383">
         <v>5</v>
       </c>
@@ -11687,7 +11630,7 @@
         <v>8</v>
       </c>
       <c r="F383">
-        <v>750</v>
+        <v>320</v>
       </c>
       <c r="G383" t="s">
         <v>36</v>
@@ -11699,7 +11642,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A384">
         <v>5</v>
       </c>
@@ -11710,10 +11653,10 @@
         <v>8</v>
       </c>
       <c r="F384">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="G384" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H384">
         <v>0</v>
@@ -11722,7 +11665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A385">
         <v>5</v>
       </c>
@@ -11733,10 +11676,10 @@
         <v>8</v>
       </c>
       <c r="F385">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="G385" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H385">
         <v>0</v>
@@ -11745,7 +11688,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A386">
         <v>5</v>
       </c>
@@ -11756,10 +11699,10 @@
         <v>8</v>
       </c>
       <c r="F386">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="G386" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H386">
         <v>0</v>
@@ -11768,7 +11711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A387">
         <v>5</v>
       </c>
@@ -11779,10 +11722,10 @@
         <v>8</v>
       </c>
       <c r="F387">
-        <v>1000</v>
+        <v>320</v>
       </c>
       <c r="G387" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H387">
         <v>0</v>
@@ -11791,7 +11734,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A388">
         <v>5</v>
       </c>
@@ -11802,7 +11745,7 @@
         <v>8</v>
       </c>
       <c r="F388">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G388" t="s">
         <v>31</v>
@@ -11814,7 +11757,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A389">
         <v>5</v>
       </c>
@@ -11825,7 +11768,7 @@
         <v>8</v>
       </c>
       <c r="F389">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G389" t="s">
         <v>31</v>
@@ -11837,7 +11780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A390">
         <v>5</v>
       </c>
@@ -11848,7 +11791,7 @@
         <v>8</v>
       </c>
       <c r="F390">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G390" t="s">
         <v>31</v>
@@ -11860,7 +11803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A391">
         <v>5</v>
       </c>
@@ -11871,7 +11814,7 @@
         <v>8</v>
       </c>
       <c r="F391">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G391" t="s">
         <v>31</v>
@@ -11883,7 +11826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A392">
         <v>5</v>
       </c>
@@ -11894,7 +11837,7 @@
         <v>8</v>
       </c>
       <c r="F392">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G392" t="s">
         <v>31</v>
@@ -11906,7 +11849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A393">
         <v>5</v>
       </c>
@@ -11917,10 +11860,10 @@
         <v>8</v>
       </c>
       <c r="F393">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G393" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H393">
         <v>0</v>
@@ -11929,7 +11872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A394">
         <v>5</v>
       </c>
@@ -11940,10 +11883,10 @@
         <v>8</v>
       </c>
       <c r="F394">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G394" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H394">
         <v>0</v>
@@ -11952,7 +11895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A395">
         <v>5</v>
       </c>
@@ -11963,10 +11906,10 @@
         <v>8</v>
       </c>
       <c r="F395">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G395" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H395">
         <v>0</v>
@@ -11975,7 +11918,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A396">
         <v>5</v>
       </c>
@@ -11986,10 +11929,10 @@
         <v>8</v>
       </c>
       <c r="F396">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G396" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H396">
         <v>0</v>
@@ -11998,7 +11941,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A397">
         <v>5</v>
       </c>
@@ -12009,7 +11952,7 @@
         <v>8</v>
       </c>
       <c r="F397">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G397" t="s">
         <v>36</v>
@@ -12021,7 +11964,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A398">
         <v>5</v>
       </c>
@@ -12032,7 +11975,7 @@
         <v>8</v>
       </c>
       <c r="F398">
-        <v>1000</v>
+        <v>640</v>
       </c>
       <c r="G398" t="s">
         <v>36</v>
@@ -12044,7 +11987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A399">
         <v>5</v>
       </c>
@@ -12055,10 +11998,10 @@
         <v>8</v>
       </c>
       <c r="F399">
-        <v>3000</v>
+        <v>640</v>
       </c>
       <c r="G399" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H399">
         <v>0</v>
@@ -12067,7 +12010,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A400">
         <v>5</v>
       </c>
@@ -12078,10 +12021,10 @@
         <v>8</v>
       </c>
       <c r="F400">
-        <v>3000</v>
+        <v>640</v>
       </c>
       <c r="G400" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H400">
         <v>0</v>
@@ -12090,7 +12033,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A401">
         <v>5</v>
       </c>
@@ -12101,10 +12044,10 @@
         <v>8</v>
       </c>
       <c r="F401">
-        <v>3000</v>
+        <v>640</v>
       </c>
       <c r="G401" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H401">
         <v>0</v>
@@ -12113,7 +12056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A402">
         <v>5</v>
       </c>
@@ -12124,10 +12067,10 @@
         <v>8</v>
       </c>
       <c r="F402">
-        <v>3000</v>
+        <v>640</v>
       </c>
       <c r="G402" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H402">
         <v>0</v>
@@ -12136,7 +12079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A403">
         <v>5</v>
       </c>
@@ -12147,7 +12090,7 @@
         <v>8</v>
       </c>
       <c r="F403">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G403" t="s">
         <v>31</v>
@@ -12159,7 +12102,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A404">
         <v>5</v>
       </c>
@@ -12170,7 +12113,7 @@
         <v>8</v>
       </c>
       <c r="F404">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G404" t="s">
         <v>31</v>
@@ -12182,7 +12125,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A405">
         <v>5</v>
       </c>
@@ -12193,7 +12136,7 @@
         <v>8</v>
       </c>
       <c r="F405">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G405" t="s">
         <v>31</v>
@@ -12205,7 +12148,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A406">
         <v>5</v>
       </c>
@@ -12216,7 +12159,7 @@
         <v>8</v>
       </c>
       <c r="F406">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G406" t="s">
         <v>31</v>
@@ -12228,7 +12171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A407">
         <v>5</v>
       </c>
@@ -12239,7 +12182,7 @@
         <v>8</v>
       </c>
       <c r="F407">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G407" t="s">
         <v>31</v>
@@ -12251,7 +12194,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A408">
         <v>5</v>
       </c>
@@ -12262,10 +12205,10 @@
         <v>8</v>
       </c>
       <c r="F408">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G408" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H408">
         <v>0</v>
@@ -12274,7 +12217,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A409">
         <v>5</v>
       </c>
@@ -12285,10 +12228,10 @@
         <v>8</v>
       </c>
       <c r="F409">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G409" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H409">
         <v>0</v>
@@ -12297,7 +12240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A410">
         <v>5</v>
       </c>
@@ -12308,10 +12251,10 @@
         <v>8</v>
       </c>
       <c r="F410">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G410" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H410">
         <v>0</v>
@@ -12320,7 +12263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A411">
         <v>5</v>
       </c>
@@ -12331,10 +12274,10 @@
         <v>8</v>
       </c>
       <c r="F411">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G411" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H411">
         <v>0</v>
@@ -12343,7 +12286,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A412">
         <v>5</v>
       </c>
@@ -12354,7 +12297,7 @@
         <v>8</v>
       </c>
       <c r="F412">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G412" t="s">
         <v>36</v>
@@ -12366,7 +12309,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A413">
         <v>5</v>
       </c>
@@ -12377,7 +12320,7 @@
         <v>8</v>
       </c>
       <c r="F413">
-        <v>3000</v>
+        <v>1280</v>
       </c>
       <c r="G413" t="s">
         <v>36</v>
@@ -12389,7 +12332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A414">
         <v>5</v>
       </c>
@@ -12400,19 +12343,19 @@
         <v>8</v>
       </c>
       <c r="F414">
-        <v>600</v>
+        <v>1280</v>
       </c>
       <c r="G414" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H414">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A415">
         <v>5</v>
       </c>
@@ -12423,19 +12366,19 @@
         <v>8</v>
       </c>
       <c r="F415">
-        <v>600</v>
+        <v>1280</v>
       </c>
       <c r="G415" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H415">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A416">
         <v>5</v>
       </c>
@@ -12446,19 +12389,19 @@
         <v>8</v>
       </c>
       <c r="F416">
-        <v>600</v>
+        <v>1280</v>
       </c>
       <c r="G416" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H416">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I416" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A417">
         <v>5</v>
       </c>
@@ -12469,19 +12412,19 @@
         <v>8</v>
       </c>
       <c r="F417">
-        <v>600</v>
+        <v>1280</v>
       </c>
       <c r="G417" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="H417">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I417" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A418">
         <v>5</v>
       </c>
@@ -12504,7 +12447,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A419">
         <v>5</v>
       </c>
@@ -12527,7 +12470,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A420">
         <v>5</v>
       </c>
@@ -12541,7 +12484,7 @@
         <v>600</v>
       </c>
       <c r="G420" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H420">
         <v>1</v>
@@ -12550,7 +12493,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A421">
         <v>5</v>
       </c>
@@ -12564,7 +12507,7 @@
         <v>600</v>
       </c>
       <c r="G421" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H421">
         <v>1</v>
@@ -12573,7 +12516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A422">
         <v>5</v>
       </c>
@@ -12587,7 +12530,7 @@
         <v>600</v>
       </c>
       <c r="G422" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H422">
         <v>1</v>
@@ -12596,7 +12539,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A423">
         <v>5</v>
       </c>
@@ -12610,7 +12553,7 @@
         <v>600</v>
       </c>
       <c r="G423" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="H423">
         <v>1</v>
@@ -12619,8 +12562,108 @@
         <v>18</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>5</v>
+      </c>
+      <c r="B424">
+        <v>4</v>
+      </c>
       <c r="E424" t="s">
+        <v>8</v>
+      </c>
+      <c r="F424">
+        <v>600</v>
+      </c>
+      <c r="G424" t="s">
+        <v>36</v>
+      </c>
+      <c r="H424">
+        <v>1</v>
+      </c>
+      <c r="I424" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="425" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>5</v>
+      </c>
+      <c r="B425">
+        <v>4</v>
+      </c>
+      <c r="E425" t="s">
+        <v>8</v>
+      </c>
+      <c r="F425">
+        <v>600</v>
+      </c>
+      <c r="G425" t="s">
+        <v>36</v>
+      </c>
+      <c r="H425">
+        <v>1</v>
+      </c>
+      <c r="I425" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="426" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>5</v>
+      </c>
+      <c r="B426">
+        <v>4</v>
+      </c>
+      <c r="E426" t="s">
+        <v>8</v>
+      </c>
+      <c r="F426">
+        <v>600</v>
+      </c>
+      <c r="G426" t="s">
+        <v>36</v>
+      </c>
+      <c r="H426">
+        <v>1</v>
+      </c>
+      <c r="I426" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="427" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>5</v>
+      </c>
+      <c r="B427">
+        <v>4</v>
+      </c>
+      <c r="E427" t="s">
+        <v>8</v>
+      </c>
+      <c r="F427">
+        <v>600</v>
+      </c>
+      <c r="G427" t="s">
+        <v>36</v>
+      </c>
+      <c r="H427">
+        <v>1</v>
+      </c>
+      <c r="I427" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="428" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B428">
+        <v>4</v>
+      </c>
+      <c r="E428" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="429" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E429" t="s">
         <v>46</v>
       </c>
     </row>
